--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HireProUs_FrontendScripts_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UpdatedScripts_HireProusFrontend\Frontend_Hireprous_Scripts_Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1660B82-6DC9-4629-B6F9-C9039DF67EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15628A9E-CB98-4067-9802-C8306DBBC44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>UserName</t>
   </si>
@@ -213,13 +213,19 @@
     <t>AddCandiadateFirstName</t>
   </si>
   <si>
-    <t>REC02024000116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Samual</t>
-  </si>
-  <si>
     <t>PE-000</t>
+  </si>
+  <si>
+    <t>REC02024000119</t>
+  </si>
+  <si>
+    <t>Kerri</t>
+  </si>
+  <si>
+    <t>REC02024000120</t>
+  </si>
+  <si>
+    <t>Waldo</t>
   </si>
 </sst>
 </file>
@@ -602,16 +608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,40 +687,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85E3BE-1F5B-4C73-8C36-2608D9B9D3DF}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="13.140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="34.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" style="10" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" style="11" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.28515625" style="10" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="22.140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="23.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.28515625" style="10" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.7109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.7109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="33.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5703125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="24" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="8.7109375" style="10" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="10" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="9.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="14.42578125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="10" width="28.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="10" width="34.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="10" width="16.74609375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="10" width="14.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="10" width="22.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="10" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="20.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="11" width="19.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="10" width="17.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="10" width="29.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="10" width="16.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="10" width="22.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="10" width="22.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="10" width="23.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="10" width="21.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="10" width="25.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="10" width="21.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="10" width="33.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="10" width="16.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="10" width="23.96484375" collapsed="true"/>
+    <col min="29" max="16384" style="10" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -835,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>27</v>
@@ -883,10 +889,10 @@
         <v>58</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UpdatedScripts_HireProusFrontend\Frontend_Hireprous_Scripts_Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15628A9E-CB98-4067-9802-C8306DBBC44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA272B12-F5FE-4D62-99C4-496312A57D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>UserName</t>
   </si>
@@ -213,19 +213,13 @@
     <t>AddCandiadateFirstName</t>
   </si>
   <si>
-    <t>PE-000</t>
-  </si>
-  <si>
-    <t>REC02024000119</t>
-  </si>
-  <si>
-    <t>Kerri</t>
-  </si>
-  <si>
-    <t>REC02024000120</t>
-  </si>
-  <si>
-    <t>Waldo</t>
+    <t>Verena</t>
+  </si>
+  <si>
+    <t>REC02024000133</t>
+  </si>
+  <si>
+    <t>Z-001</t>
   </si>
 </sst>
 </file>
@@ -608,16 +602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,40 +681,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85E3BE-1F5B-4C73-8C36-2608D9B9D3DF}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="9.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="10" width="14.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="10" width="28.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="10" width="34.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="10" width="16.74609375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="10" width="14.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="10" width="22.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="10" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="10" width="20.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="11" width="19.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="10" width="17.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="10" width="29.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="10" width="16.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="10" width="22.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="10" width="22.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="10" width="23.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="10" width="21.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="10" width="25.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="10" width="21.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="10" width="33.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="10" width="16.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="10" width="23.96484375" collapsed="true"/>
-    <col min="29" max="16384" style="10" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="13.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" style="10" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.28515625" style="11" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="29.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="22.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="23.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.7109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="33.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5703125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="24" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="8.7109375" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -841,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>27</v>
@@ -889,10 +883,10 @@
         <v>58</v>
       </c>
       <c r="AA2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
